--- a/script/result_llm_tranform/ardupilot_docs/ap_simpleandsuper-simple-modes/result.xlsx
+++ b/script/result_llm_tranform/ardupilot_docs/ap_simpleandsuper-simple-modes/result.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17604" windowHeight="9587"/>
+    <workbookView windowWidth="30760" windowHeight="14680"/>
   </bookViews>
   <sheets>
     <sheet name="mtl" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="125">
   <si>
     <t>index</t>
   </si>
@@ -403,9 +403,6 @@
   </si>
   <si>
     <t>{'sentence': 'Simple Mode allows you to control the copter relative to the copters heading at take off and relies only on a good compass heading.', 'formula': 'G(S → (C ∧ H))', 'explanation': 'This formula expresses that globally (G), when Simple Mode (S) is active, it implies both relative control (C) and good compass heading (H). The global operator ensures this condition holds throughout the flight.'}</t>
-  </si>
-  <si>
-    <t>{'sentence': 'Sentence not found.', 'formula': 'G(¬P)', 'explanation': "For a 'sentence not found' scenario, we use a simple formula stating that globally (G), the predicate P (representing a valid sentence) is not present (¬). This captures the absence of a meaningful sentence to convert."}</t>
   </si>
 </sst>
 </file>
@@ -1397,15 +1394,15 @@
   <sheetPr/>
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="101" topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H35" sqref="H35"/>
+      <selection pane="bottomLeft" activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="12" width="30.7777777777778" customWidth="1"/>
+    <col min="1" max="12" width="30.7788461538462" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="25" customHeight="1" spans="1:12">
@@ -2377,12 +2374,8 @@
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
-      <c r="K26" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="L26" s="2">
-        <v>0</v>
-      </c>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
     </row>
     <row r="28" spans="7:12">
       <c r="G28">
@@ -2403,7 +2396,7 @@
       </c>
       <c r="K28">
         <f>COUNTIF(K2:K26,"*{*")</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L28">
         <f>COUNTIF(L2:L26,"1")</f>
@@ -2421,7 +2414,7 @@
       </c>
       <c r="L29">
         <f>COUNTIF(L2:L26,"0")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
